--- a/2025-05-12 bokforing_17.mai_arr.xlsx
+++ b/2025-05-12 bokforing_17.mai_arr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno-my.sharepoint.com/personal/eirik_lamoy_nav_no/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno-my.sharepoint.com/personal/eirik_lamoy_nav_no/Documents/Documents/vscode/17.mai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{B0960C2D-1B90-4C3B-B797-AF8CA6E4BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A5C843F-BAA2-417C-A780-253E640C8A56}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{B0960C2D-1B90-4C3B-B797-AF8CA6E4BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDC0B6AF-5F7E-412B-BFCE-3E83550DE26A}"/>
   <bookViews>
-    <workbookView xWindow="-36390" yWindow="-1095" windowWidth="28770" windowHeight="14970" xr2:uid="{B8DE3DA0-DDAB-46AD-9155-B9F1C6FB92C9}"/>
+    <workbookView xWindow="10560" yWindow="2475" windowWidth="20115" windowHeight="14400" xr2:uid="{B8DE3DA0-DDAB-46AD-9155-B9F1C6FB92C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>dato</t>
   </si>
@@ -126,10 +126,13 @@
     <t>loddbok</t>
   </si>
   <si>
-    <t>nei</t>
-  </si>
-  <si>
     <t>Resultat</t>
+  </si>
+  <si>
+    <t>kontanter inntekt salg 17.mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB62ADE-D4D9-42EF-BCE8-534703BBC922}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,6 +618,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45748</v>
+      </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -659,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -675,7 +681,7 @@
       </c>
       <c r="K4" s="3">
         <f>SUMIFS(C:C,B:B,J4)*IF(J4="kost",(-1),1)</f>
-        <v>-6689</v>
+        <v>-6690</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -702,7 +708,7 @@
       </c>
       <c r="K5" s="3">
         <f>SUMIFS(C:C,B:B,J5)*IF(J5="kost",(-1),1)</f>
-        <v>13000</v>
+        <v>16632</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -715,18 +721,33 @@
       <c r="C6">
         <v>504</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="4">
         <f>SUM(K4:K5)</f>
-        <v>6311</v>
+        <v>9942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f>(7991-4359)</f>
+        <v>3632</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
